--- a/biology/Médecine/Tedjini_Haddam/Tedjini_Haddam.xlsx
+++ b/biology/Médecine/Tedjini_Haddam/Tedjini_Haddam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tedjini Haddam, né le 11 janvier 1921 à Tlemcen et mort le 20 mars 2000, est un homme politique algérien. Il est médecin de formation, spécialisé en chirurgie thoracique et cardio-vasculaire.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie, en parallèle de l'école française, à Dar El Hadith, école fondée par l'Association des oulémas musulmans algériens. Il sera à cette période une tête de file de mouvement de l'Organisation des Frères Musulmans d'Algérie (OFMA) à Tlemcen[1]. Il obtient son doctorat en médecine à Paris en 1952 puis travaille en Suède puis aux États-Unis avant de rejoindre, en 1954, le Front de libération nationale algérien à Constantine. Il est emprisonné à Constantine puis est condamné à mort par contumace après son évasion. Il s'installe alors en Tunisie en 1956, à Tunis où il dirigera alors le service de chirurgie générale et cardio-pulmonaire de l'hôpital Sadiki. Il sera responsable du Service Sanitaire de la base A, affecté par le Comité de coordination et d'exécution en 1957.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie, en parallèle de l'école française, à Dar El Hadith, école fondée par l'Association des oulémas musulmans algériens. Il sera à cette période une tête de file de mouvement de l'Organisation des Frères Musulmans d'Algérie (OFMA) à Tlemcen. Il obtient son doctorat en médecine à Paris en 1952 puis travaille en Suède puis aux États-Unis avant de rejoindre, en 1954, le Front de libération nationale algérien à Constantine. Il est emprisonné à Constantine puis est condamné à mort par contumace après son évasion. Il s'installe alors en Tunisie en 1956, à Tunis où il dirigera alors le service de chirurgie générale et cardio-pulmonaire de l'hôpital Sadiki. Il sera responsable du Service Sanitaire de la base A, affecté par le Comité de coordination et d'exécution en 1957.
 À l'indépendance il rejoint l'hôpital Mustapha Pacha d'Alger avant de commencer une longue carrière politique en tant que vice-président de l'Assemblée constituante, ministre des Habous, ministre de la Santé et par deux fois ambassadeur.
-De 1989 jusqu'en 1992, Haddam est recteur de la Grande Mosquée de Paris[2].
-En février 1992, Haddam participe à l'instauration de l'État d'urgence en Algérie en tant que membre du Haut Comité d'État[3].
+De 1989 jusqu'en 1992, Haddam est recteur de la Grande Mosquée de Paris.
+En février 1992, Haddam participe à l'instauration de l'État d'urgence en Algérie en tant que membre du Haut Comité d'État.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1962-1963 : Vice-président de l'Assemblée Constituante
 1964-1965 : Ministre algérien des affaires religieuses, des waqfs et des habous
@@ -582,7 +598,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital de Bir El Ater , l'un des campus universitaires de l'Université des Frères Mentouri de Constantine, la Faculté des Sciences de l'Université Abou Bekr Belkaid de Tlemcen, ainsi qu'une résidence universitaire à Tlemcen portent son nom.
 </t>
